--- a/code/data_modif.xlsx
+++ b/code/data_modif.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Github\GitHub\StatApp\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2575F34E-0FB9-4D4A-AB43-E3AD890903B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39297E3B-A38B-47D4-BE64-FED9B0CAB596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{300B3C8C-D0C8-4F5C-B1F9-63352E12FFD4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{300B3C8C-D0C8-4F5C-B1F9-63352E12FFD4}"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="1" r:id="rId1"/>
@@ -2031,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBCF814-C275-40CA-99D8-C8A2949D0BF6}">
   <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7019,8 +7019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8193407F-CECE-4DA6-A9C8-D7EDBCD1DB3A}">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7128,10 +7128,7 @@
       <c r="N2" s="11">
         <v>5583844</v>
       </c>
-      <c r="O2" s="10">
-        <f>E2*1000</f>
-        <v>274246</v>
-      </c>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
@@ -7177,10 +7174,7 @@
       <c r="N3" s="11">
         <v>5698139</v>
       </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O66" si="1">E3*1000</f>
-        <v>274950</v>
-      </c>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
@@ -7226,10 +7220,7 @@
       <c r="N4" s="11">
         <v>5858251</v>
       </c>
-      <c r="O4" s="10">
-        <f t="shared" si="1"/>
-        <v>275703</v>
-      </c>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
@@ -7275,10 +7266,7 @@
       <c r="N5" s="11">
         <v>6013008</v>
       </c>
-      <c r="O5" s="10">
-        <f t="shared" si="1"/>
-        <v>276564</v>
-      </c>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
@@ -7324,10 +7312,7 @@
       <c r="N6" s="11">
         <v>6144124</v>
       </c>
-      <c r="O6" s="10">
-        <f t="shared" si="1"/>
-        <v>277400</v>
-      </c>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
@@ -7373,10 +7358,7 @@
       <c r="N7" s="11">
         <v>6261603</v>
       </c>
-      <c r="O7" s="10">
-        <f t="shared" si="1"/>
-        <v>278103</v>
-      </c>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
@@ -7422,10 +7404,7 @@
       <c r="N8" s="11">
         <v>6439691</v>
       </c>
-      <c r="O8" s="10">
-        <f t="shared" si="1"/>
-        <v>278864</v>
-      </c>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
@@ -7471,10 +7450,7 @@
       <c r="N9" s="11">
         <v>6611804</v>
       </c>
-      <c r="O9" s="10">
-        <f t="shared" si="1"/>
-        <v>279751</v>
-      </c>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
@@ -7520,10 +7496,7 @@
       <c r="N10" s="11">
         <v>6771632</v>
       </c>
-      <c r="O10" s="10">
-        <f t="shared" si="1"/>
-        <v>280592</v>
-      </c>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
@@ -7569,10 +7542,7 @@
       <c r="N11" s="11">
         <v>7104272</v>
       </c>
-      <c r="O11" s="10">
-        <f t="shared" si="1"/>
-        <v>281304</v>
-      </c>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
@@ -7618,10 +7588,7 @@
       <c r="N12" s="11">
         <v>7441365</v>
       </c>
-      <c r="O12" s="10">
-        <f t="shared" si="1"/>
-        <v>282002</v>
-      </c>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
@@ -7667,10 +7634,7 @@
       <c r="N13" s="11">
         <v>7730777</v>
       </c>
-      <c r="O13" s="10">
-        <f t="shared" si="1"/>
-        <v>282769</v>
-      </c>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
@@ -7716,10 +7680,7 @@
       <c r="N14" s="11">
         <v>8028747</v>
       </c>
-      <c r="O14" s="10">
-        <f t="shared" si="1"/>
-        <v>283519</v>
-      </c>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
@@ -7765,10 +7726,7 @@
       <c r="N15" s="11">
         <v>8647985</v>
       </c>
-      <c r="O15" s="10">
-        <f t="shared" si="1"/>
-        <v>284169</v>
-      </c>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
@@ -7814,10 +7772,7 @@
       <c r="N16" s="11">
         <v>8875217</v>
       </c>
-      <c r="O16" s="10">
-        <f t="shared" si="1"/>
-        <v>284837</v>
-      </c>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
@@ -7863,10 +7818,7 @@
       <c r="N17" s="11">
         <v>9105610</v>
       </c>
-      <c r="O17" s="10">
-        <f t="shared" si="1"/>
-        <v>285583</v>
-      </c>
+      <c r="O17" s="10"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
@@ -7912,10 +7864,7 @@
       <c r="N18" s="11">
         <v>9338527</v>
       </c>
-      <c r="O18" s="10">
-        <f t="shared" si="1"/>
-        <v>286311</v>
-      </c>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
@@ -7961,10 +7910,7 @@
       <c r="N19" s="11">
         <v>9578867</v>
       </c>
-      <c r="O19" s="10">
-        <f t="shared" si="1"/>
-        <v>286935</v>
-      </c>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
@@ -8010,10 +7956,7 @@
       <c r="N20" s="11">
         <v>9757440</v>
       </c>
-      <c r="O20" s="10">
-        <f t="shared" si="1"/>
-        <v>287574</v>
-      </c>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
@@ -8059,10 +8002,7 @@
       <c r="N21" s="11">
         <v>9929696</v>
       </c>
-      <c r="O21" s="10">
-        <f t="shared" si="1"/>
-        <v>288303</v>
-      </c>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
@@ -8108,10 +8048,7 @@
       <c r="N22" s="11">
         <v>10099331</v>
       </c>
-      <c r="O22" s="10">
-        <f t="shared" si="1"/>
-        <v>289007</v>
-      </c>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
@@ -8157,10 +8094,7 @@
       <c r="N23" s="11">
         <v>10300888</v>
       </c>
-      <c r="O23" s="10">
-        <f t="shared" si="1"/>
-        <v>289609</v>
-      </c>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
@@ -8206,10 +8140,7 @@
       <c r="N24" s="11">
         <v>10444648</v>
       </c>
-      <c r="O24" s="10">
-        <f t="shared" si="1"/>
-        <v>290253</v>
-      </c>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
@@ -8255,10 +8186,7 @@
       <c r="N25" s="11">
         <v>10617047</v>
       </c>
-      <c r="O25" s="10">
-        <f t="shared" si="1"/>
-        <v>290974</v>
-      </c>
+      <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
@@ -8304,10 +8232,7 @@
       <c r="N26" s="11">
         <v>10840672</v>
       </c>
-      <c r="O26" s="10">
-        <f t="shared" si="1"/>
-        <v>291669</v>
-      </c>
+      <c r="O26" s="10"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
@@ -8353,10 +8278,7 @@
       <c r="N27" s="11">
         <v>11356175</v>
       </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>292237</v>
-      </c>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
@@ -8402,10 +8324,7 @@
       <c r="N28" s="11">
         <v>11699256</v>
       </c>
-      <c r="O28" s="10">
-        <f t="shared" si="1"/>
-        <v>292875</v>
-      </c>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
@@ -8451,10 +8370,7 @@
       <c r="N29" s="11">
         <v>12181836</v>
       </c>
-      <c r="O29" s="10">
-        <f t="shared" si="1"/>
-        <v>293603</v>
-      </c>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
@@ -8500,10 +8416,7 @@
       <c r="N30" s="11">
         <v>12622776</v>
       </c>
-      <c r="O30" s="10">
-        <f t="shared" si="1"/>
-        <v>294334</v>
-      </c>
+      <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
@@ -8549,10 +8462,7 @@
       <c r="N31" s="11">
         <v>13060948</v>
       </c>
-      <c r="O31" s="10">
-        <f t="shared" si="1"/>
-        <v>294957</v>
-      </c>
+      <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
@@ -8598,10 +8508,7 @@
       <c r="N32" s="11">
         <v>13470538</v>
       </c>
-      <c r="O32" s="10">
-        <f t="shared" si="1"/>
-        <v>295588</v>
-      </c>
+      <c r="O32" s="10"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
@@ -8647,10 +8554,7 @@
       <c r="N33" s="11">
         <v>13950816</v>
       </c>
-      <c r="O33" s="10">
-        <f t="shared" si="1"/>
-        <v>296340</v>
-      </c>
+      <c r="O33" s="10"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
@@ -8696,10 +8600,7 @@
       <c r="N34" s="11">
         <v>14368275</v>
       </c>
-      <c r="O34" s="10">
-        <f t="shared" si="1"/>
-        <v>297086</v>
-      </c>
+      <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
@@ -8745,10 +8646,7 @@
       <c r="N35" s="11">
         <v>14152581</v>
       </c>
-      <c r="O35" s="10">
-        <f t="shared" si="1"/>
-        <v>297737</v>
-      </c>
+      <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
@@ -8794,10 +8692,7 @@
       <c r="N36" s="11">
         <v>14226415</v>
       </c>
-      <c r="O36" s="10">
-        <f t="shared" si="1"/>
-        <v>298408</v>
-      </c>
+      <c r="O36" s="10"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
@@ -8843,10 +8738,7 @@
       <c r="N37" s="11">
         <v>14260853</v>
       </c>
-      <c r="O37" s="10">
-        <f t="shared" si="1"/>
-        <v>299180</v>
-      </c>
+      <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
@@ -8892,10 +8784,7 @@
       <c r="N38" s="11">
         <v>14189922</v>
       </c>
-      <c r="O38" s="10">
-        <f t="shared" si="1"/>
-        <v>299946</v>
-      </c>
+      <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
@@ -8941,10 +8830,7 @@
       <c r="N39" s="11">
         <v>13741739</v>
       </c>
-      <c r="O39" s="10">
-        <f t="shared" si="1"/>
-        <v>300610</v>
-      </c>
+      <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
@@ -8990,10 +8876,7 @@
       <c r="N40" s="11">
         <v>13438697</v>
       </c>
-      <c r="O40" s="10">
-        <f t="shared" si="1"/>
-        <v>301284</v>
-      </c>
+      <c r="O40" s="10"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
@@ -9039,10 +8922,7 @@
       <c r="N41" s="11">
         <v>13075258</v>
       </c>
-      <c r="O41" s="10">
-        <f t="shared" si="1"/>
-        <v>302063</v>
-      </c>
+      <c r="O41" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="9">
@@ -9088,10 +8968,7 @@
       <c r="N42" s="11">
         <v>12638719</v>
       </c>
-      <c r="O42" s="10">
-        <f t="shared" si="1"/>
-        <v>302829</v>
-      </c>
+      <c r="O42" s="10"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
@@ -9137,10 +9014,7 @@
       <c r="N43" s="11">
         <v>11881884</v>
       </c>
-      <c r="O43" s="10">
-        <f t="shared" si="1"/>
-        <v>303494</v>
-      </c>
+      <c r="O43" s="10"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
@@ -9186,10 +9060,7 @@
       <c r="N44" s="11">
         <v>11340148</v>
       </c>
-      <c r="O44" s="10">
-        <f t="shared" si="1"/>
-        <v>304160</v>
-      </c>
+      <c r="O44" s="10"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="9">
@@ -9235,10 +9106,7 @@
       <c r="N45" s="11">
         <v>10812988</v>
       </c>
-      <c r="O45" s="10">
-        <f t="shared" si="1"/>
-        <v>304902</v>
-      </c>
+      <c r="O45" s="10"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
@@ -9284,10 +9152,7 @@
       <c r="N46" s="11">
         <v>10342620</v>
       </c>
-      <c r="O46" s="10">
-        <f t="shared" si="1"/>
-        <v>305617</v>
-      </c>
+      <c r="O46" s="10"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
@@ -9333,10 +9198,7 @@
       <c r="N47" s="11">
         <v>9816515</v>
       </c>
-      <c r="O47" s="10">
-        <f t="shared" si="1"/>
-        <v>306237</v>
-      </c>
+      <c r="O47" s="10"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
@@ -9382,10 +9244,7 @@
       <c r="N48" s="11">
         <v>9423210</v>
       </c>
-      <c r="O48" s="10">
-        <f t="shared" si="1"/>
-        <v>306866</v>
-      </c>
+      <c r="O48" s="10"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
@@ -9431,10 +9290,7 @@
       <c r="N49" s="11">
         <v>9171520</v>
       </c>
-      <c r="O49" s="10">
-        <f t="shared" si="1"/>
-        <v>307573</v>
-      </c>
+      <c r="O49" s="10"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
@@ -9480,10 +9336,7 @@
       <c r="N50" s="11">
         <v>9001160</v>
       </c>
-      <c r="O50" s="10">
-        <f t="shared" si="1"/>
-        <v>308285</v>
-      </c>
+      <c r="O50" s="10"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
@@ -9529,10 +9382,7 @@
       <c r="N51" s="11">
         <v>9029161</v>
       </c>
-      <c r="O51" s="10">
-        <f t="shared" si="1"/>
-        <v>308902</v>
-      </c>
+      <c r="O51" s="10"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
@@ -9578,10 +9428,7 @@
       <c r="N52" s="11">
         <v>9016813</v>
       </c>
-      <c r="O52" s="10">
-        <f t="shared" si="1"/>
-        <v>309488</v>
-      </c>
+      <c r="O52" s="10"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
@@ -9627,10 +9474,7 @@
       <c r="N53" s="11">
         <v>8949540</v>
       </c>
-      <c r="O53" s="10">
-        <f t="shared" si="1"/>
-        <v>310148</v>
-      </c>
+      <c r="O53" s="10"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
@@ -9676,10 +9520,7 @@
       <c r="N54" s="11">
         <v>8853863</v>
       </c>
-      <c r="O54" s="10">
-        <f t="shared" si="1"/>
-        <v>310817</v>
-      </c>
+      <c r="O54" s="10"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
@@ -9725,10 +9566,7 @@
       <c r="N55" s="11">
         <v>8562983</v>
       </c>
-      <c r="O55" s="10">
-        <f t="shared" si="1"/>
-        <v>311376</v>
-      </c>
+      <c r="O55" s="10"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
@@ -9774,10 +9612,7 @@
       <c r="N56" s="11">
         <v>8515245</v>
       </c>
-      <c r="O56" s="10">
-        <f t="shared" si="1"/>
-        <v>311941</v>
-      </c>
+      <c r="O56" s="10"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
@@ -9823,10 +9658,7 @@
       <c r="N57" s="11">
         <v>8482046</v>
       </c>
-      <c r="O57" s="10">
-        <f t="shared" si="1"/>
-        <v>312606</v>
-      </c>
+      <c r="O57" s="10"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
@@ -9872,10 +9704,7 @@
       <c r="N58" s="11">
         <v>8366789.0000000009</v>
       </c>
-      <c r="O58" s="10">
-        <f t="shared" si="1"/>
-        <v>313258</v>
-      </c>
+      <c r="O58" s="10"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
@@ -9921,10 +9750,7 @@
       <c r="N59" s="11">
         <v>8247222</v>
       </c>
-      <c r="O59" s="10">
-        <f t="shared" si="1"/>
-        <v>313813</v>
-      </c>
+      <c r="O59" s="10"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
@@ -9970,10 +9796,7 @@
       <c r="N60" s="11">
         <v>8500254</v>
       </c>
-      <c r="O60" s="10">
-        <f t="shared" si="1"/>
-        <v>314373</v>
-      </c>
+      <c r="O60" s="10"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
@@ -10019,10 +9842,7 @@
       <c r="N61" s="11">
         <v>8789833</v>
       </c>
-      <c r="O61" s="10">
-        <f t="shared" si="1"/>
-        <v>315030</v>
-      </c>
+      <c r="O61" s="10"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="9">
@@ -10068,10 +9888,7 @@
       <c r="N62" s="11">
         <v>9025529</v>
       </c>
-      <c r="O62" s="10">
-        <f t="shared" si="1"/>
-        <v>315685</v>
-      </c>
+      <c r="O62" s="10"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
@@ -10117,10 +9934,7 @@
       <c r="N63" s="11">
         <v>9484169</v>
       </c>
-      <c r="O63" s="10">
-        <f t="shared" si="1"/>
-        <v>316195</v>
-      </c>
+      <c r="O63" s="10"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
@@ -10166,10 +9980,7 @@
       <c r="N64" s="11">
         <v>10022483</v>
       </c>
-      <c r="O64" s="10">
-        <f t="shared" si="1"/>
-        <v>316733</v>
-      </c>
+      <c r="O64" s="10"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
@@ -10215,10 +10026,7 @@
       <c r="N65" s="11">
         <v>10531175</v>
       </c>
-      <c r="O65" s="10">
-        <f t="shared" si="1"/>
-        <v>317396</v>
-      </c>
+      <c r="O65" s="10"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="9">
@@ -10264,10 +10072,7 @@
       <c r="N66" s="11">
         <v>10887599</v>
       </c>
-      <c r="O66" s="10">
-        <f t="shared" si="1"/>
-        <v>318072</v>
-      </c>
+      <c r="O66" s="10"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
@@ -10301,7 +10106,7 @@
         <v>0.123333333333333</v>
       </c>
       <c r="K67" s="8">
-        <f t="shared" ref="K67:K106" si="2">I67-J67</f>
+        <f t="shared" ref="K67:K106" si="1">I67-J67</f>
         <v>2.639999999999997</v>
       </c>
       <c r="L67" s="7">
@@ -10313,10 +10118,7 @@
       <c r="N67" s="11">
         <v>11224669</v>
       </c>
-      <c r="O67" s="10">
-        <f t="shared" ref="O67:O106" si="3">E67*1000</f>
-        <v>318644</v>
-      </c>
+      <c r="O67" s="10"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
@@ -10350,7 +10152,7 @@
         <v>0.11333333333333299</v>
       </c>
       <c r="K68" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5099999999999971</v>
       </c>
       <c r="L68" s="7">
@@ -10362,10 +10164,7 @@
       <c r="N68" s="11">
         <v>11667975</v>
       </c>
-      <c r="O68" s="10">
-        <f t="shared" si="3"/>
-        <v>319228</v>
-      </c>
+      <c r="O68" s="10"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
@@ -10399,7 +10198,7 @@
         <v>0.12666666666666701</v>
       </c>
       <c r="K69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.3700000000000032</v>
       </c>
       <c r="L69" s="7">
@@ -10411,10 +10210,7 @@
       <c r="N69" s="11">
         <v>12055342</v>
       </c>
-      <c r="O69" s="10">
-        <f t="shared" si="3"/>
-        <v>319918</v>
-      </c>
+      <c r="O69" s="10"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
@@ -10448,7 +10244,7 @@
         <v>0.133333333333333</v>
       </c>
       <c r="K70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1466666666666669</v>
       </c>
       <c r="L70" s="7">
@@ -10460,10 +10256,7 @@
       <c r="N70" s="11">
         <v>12300063</v>
       </c>
-      <c r="O70" s="10">
-        <f t="shared" si="3"/>
-        <v>320611</v>
-      </c>
+      <c r="O70" s="10"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="9">
@@ -10497,7 +10290,7 @@
         <v>0.15</v>
       </c>
       <c r="K71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.81666666666667</v>
       </c>
       <c r="L71" s="7">
@@ -10509,10 +10302,7 @@
       <c r="N71" s="11">
         <v>12663787</v>
       </c>
-      <c r="O71" s="10">
-        <f t="shared" si="3"/>
-        <v>321168</v>
-      </c>
+      <c r="O71" s="10"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
@@ -10546,7 +10336,7 @@
         <v>0.15333333333333299</v>
       </c>
       <c r="K72" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0133333333333372</v>
       </c>
       <c r="L72" s="7">
@@ -10558,10 +10348,7 @@
       <c r="N72" s="11">
         <v>13074415</v>
       </c>
-      <c r="O72" s="10">
-        <f t="shared" si="3"/>
-        <v>321744</v>
-      </c>
+      <c r="O72" s="10"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
@@ -10595,7 +10382,7 @@
         <v>0.24</v>
       </c>
       <c r="K73" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9800000000000002</v>
       </c>
       <c r="L73" s="7">
@@ -10607,10 +10394,7 @@
       <c r="N73" s="11">
         <v>13473214</v>
       </c>
-      <c r="O73" s="10">
-        <f t="shared" si="3"/>
-        <v>322428</v>
-      </c>
+      <c r="O73" s="10"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="9">
@@ -10644,7 +10428,7 @@
         <v>0.36333333333333301</v>
       </c>
       <c r="K74" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8266666666666669</v>
       </c>
       <c r="L74" s="7">
@@ -10656,10 +10440,7 @@
       <c r="N74" s="11">
         <v>13739108</v>
       </c>
-      <c r="O74" s="10">
-        <f t="shared" si="3"/>
-        <v>323111</v>
-      </c>
+      <c r="O74" s="10"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
@@ -10693,7 +10474,7 @@
         <v>0.55333333333333301</v>
       </c>
       <c r="K75" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3666666666666669</v>
       </c>
       <c r="L75" s="7">
@@ -10705,10 +10486,7 @@
       <c r="N75" s="11">
         <v>14030997</v>
       </c>
-      <c r="O75" s="10">
-        <f t="shared" si="3"/>
-        <v>323689</v>
-      </c>
+      <c r="O75" s="10"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="9">
@@ -10742,7 +10520,7 @@
         <v>0.55666666666666698</v>
       </c>
       <c r="K76" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1966666666666632</v>
       </c>
       <c r="L76" s="7">
@@ -10754,10 +10532,7 @@
       <c r="N76" s="11">
         <v>14515384</v>
       </c>
-      <c r="O76" s="10">
-        <f t="shared" si="3"/>
-        <v>324266</v>
-      </c>
+      <c r="O76" s="10"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
@@ -10791,7 +10566,7 @@
         <v>0.7</v>
       </c>
       <c r="K77" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.86333333333332996</v>
       </c>
       <c r="L77" s="7">
@@ -10803,10 +10578,7 @@
       <c r="N77" s="11">
         <v>14951477</v>
       </c>
-      <c r="O77" s="10">
-        <f t="shared" si="3"/>
-        <v>324925</v>
-      </c>
+      <c r="O77" s="10"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="9">
@@ -10840,7 +10612,7 @@
         <v>0.76666666666666605</v>
       </c>
       <c r="K78" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3633333333333337</v>
       </c>
       <c r="L78" s="7">
@@ -10852,10 +10624,7 @@
       <c r="N78" s="11">
         <v>15306835</v>
       </c>
-      <c r="O78" s="10">
-        <f t="shared" si="3"/>
-        <v>325557</v>
-      </c>
+      <c r="O78" s="10"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="9">
@@ -10889,7 +10658,7 @@
         <v>0.91666666666666596</v>
       </c>
       <c r="K79" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5266666666666637</v>
       </c>
       <c r="L79" s="7">
@@ -10901,10 +10670,7 @@
       <c r="N79" s="11">
         <v>15677410</v>
       </c>
-      <c r="O79" s="10">
-        <f t="shared" si="3"/>
-        <v>326053</v>
-      </c>
+      <c r="O79" s="10"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="9">
@@ -10938,7 +10704,7 @@
         <v>1.08</v>
       </c>
       <c r="K80" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.18333333333333</v>
       </c>
       <c r="L80" s="7">
@@ -10950,10 +10716,7 @@
       <c r="N80" s="11">
         <v>16132392</v>
       </c>
-      <c r="O80" s="10">
-        <f t="shared" si="3"/>
-        <v>326554</v>
-      </c>
+      <c r="O80" s="10"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="9">
@@ -10987,7 +10750,7 @@
         <v>1.24</v>
       </c>
       <c r="K81" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0033333333333301</v>
       </c>
       <c r="L81" s="7">
@@ -10999,10 +10762,7 @@
       <c r="N81" s="11">
         <v>16557733</v>
       </c>
-      <c r="O81" s="10">
-        <f t="shared" si="3"/>
-        <v>327140</v>
-      </c>
+      <c r="O81" s="10"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="9">
@@ -11036,7 +10796,7 @@
         <v>1.37333333333333</v>
       </c>
       <c r="K82" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.99666666666667014</v>
       </c>
       <c r="L82" s="7">
@@ -11048,10 +10808,7 @@
       <c r="N82" s="11">
         <v>16887561</v>
       </c>
-      <c r="O82" s="10">
-        <f t="shared" si="3"/>
-        <v>327692</v>
-      </c>
+      <c r="O82" s="10"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
@@ -11085,7 +10842,7 @@
         <v>1.83</v>
       </c>
       <c r="K83" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.92999999999999972</v>
       </c>
       <c r="L83" s="7">
@@ -11097,10 +10854,7 @@
       <c r="N83" s="11">
         <v>17476639</v>
       </c>
-      <c r="O83" s="10">
-        <f t="shared" si="3"/>
-        <v>328091</v>
-      </c>
+      <c r="O83" s="10"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="9">
@@ -11134,7 +10888,7 @@
         <v>2.18333333333333</v>
       </c>
       <c r="K84" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.73666666666666991</v>
       </c>
       <c r="L84" s="7">
@@ -11146,10 +10900,7 @@
       <c r="N84" s="11">
         <v>17791049</v>
       </c>
-      <c r="O84" s="10">
-        <f t="shared" si="3"/>
-        <v>328526</v>
-      </c>
+      <c r="O84" s="10"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="9">
@@ -11183,7 +10934,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K85" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.72666666666666968</v>
       </c>
       <c r="L85" s="7">
@@ -11195,10 +10946,7 @@
       <c r="N85" s="11">
         <v>18053819</v>
       </c>
-      <c r="O85" s="10">
-        <f t="shared" si="3"/>
-        <v>329040</v>
-      </c>
+      <c r="O85" s="10"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="9">
@@ -11232,7 +10980,7 @@
         <v>2.54</v>
       </c>
       <c r="K86" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.49333333333333007</v>
       </c>
       <c r="L86" s="7">
@@ -11244,10 +10992,7 @@
       <c r="N86" s="11">
         <v>18262497</v>
       </c>
-      <c r="O86" s="10">
-        <f t="shared" si="3"/>
-        <v>329522</v>
-      </c>
+      <c r="O86" s="10"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="9">
@@ -11281,7 +11026,7 @@
         <v>2.52</v>
       </c>
       <c r="K87" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.1333333333333302</v>
       </c>
       <c r="L87" s="7">
@@ -11293,10 +11038,7 @@
       <c r="N87" s="11">
         <v>18729124</v>
       </c>
-      <c r="O87" s="10">
-        <f t="shared" si="3"/>
-        <v>329868</v>
-      </c>
+      <c r="O87" s="10"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="9">
@@ -11330,7 +11072,7 @@
         <v>2.4033333333333302</v>
       </c>
       <c r="K88" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7.0000000000000284E-2</v>
       </c>
       <c r="L88" s="7">
@@ -11342,10 +11084,7 @@
       <c r="N88" s="11">
         <v>19022630</v>
       </c>
-      <c r="O88" s="10">
-        <f t="shared" si="3"/>
-        <v>330245</v>
-      </c>
+      <c r="O88" s="10"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="9">
@@ -11379,7 +11118,7 @@
         <v>2.1033333333333299</v>
       </c>
       <c r="K89" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.30666666666665998</v>
       </c>
       <c r="L89" s="7">
@@ -11391,10 +11130,7 @@
       <c r="N89" s="11">
         <v>19220225</v>
       </c>
-      <c r="O89" s="10">
-        <f t="shared" si="3"/>
-        <v>330729</v>
-      </c>
+      <c r="O89" s="10"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
@@ -11428,7 +11164,7 @@
         <v>1.8033333333333299</v>
       </c>
       <c r="K90" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="L90" s="7">
@@ -11440,10 +11176,7 @@
       <c r="N90" s="11">
         <v>19499628</v>
       </c>
-      <c r="O90" s="10">
-        <f t="shared" si="3"/>
-        <v>331208</v>
-      </c>
+      <c r="O90" s="10"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="9">
@@ -11477,7 +11210,7 @@
         <v>1.53</v>
       </c>
       <c r="K91" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.15333333333332999</v>
       </c>
       <c r="L91" s="7">
@@ -11489,10 +11222,7 @@
       <c r="N91" s="11">
         <v>20107785</v>
       </c>
-      <c r="O91" s="10">
-        <f t="shared" si="3"/>
-        <v>331545</v>
-      </c>
+      <c r="O91" s="10"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="9">
@@ -11526,7 +11256,7 @@
         <v>0.185</v>
       </c>
       <c r="K92" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.50166666666666693</v>
       </c>
       <c r="L92" s="7">
@@ -11538,10 +11268,7 @@
       <c r="N92" s="11">
         <v>20778502</v>
       </c>
-      <c r="O92" s="10">
-        <f t="shared" si="3"/>
-        <v>331765</v>
-      </c>
+      <c r="O92" s="10"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="9">
@@ -11575,7 +11302,7 @@
         <v>0.15333333333333299</v>
       </c>
       <c r="K93" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.49666666666666703</v>
       </c>
       <c r="L93" s="7">
@@ -11587,10 +11314,7 @@
       <c r="N93" s="11">
         <v>21397548</v>
       </c>
-      <c r="O93" s="10">
-        <f t="shared" si="3"/>
-        <v>331938</v>
-      </c>
+      <c r="O93" s="10"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="9">
@@ -11624,7 +11348,7 @@
         <v>0.15</v>
       </c>
       <c r="K94" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.71333333333333393</v>
       </c>
       <c r="L94" s="7">
@@ -11636,10 +11360,7 @@
       <c r="N94" s="11">
         <v>22226133</v>
       </c>
-      <c r="O94" s="10">
-        <f t="shared" si="3"/>
-        <v>332111</v>
-      </c>
+      <c r="O94" s="10"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="9">
@@ -11673,7 +11394,7 @@
         <v>0.116666666666667</v>
       </c>
       <c r="K95" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2000000000000031</v>
       </c>
       <c r="L95" s="7">
@@ -11685,10 +11406,7 @@
       <c r="N95" s="11">
         <v>23402509</v>
       </c>
-      <c r="O95" s="10">
-        <f t="shared" si="3"/>
-        <v>332055</v>
-      </c>
+      <c r="O95" s="10"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="9">
@@ -11722,7 +11440,7 @@
         <v>0.1</v>
       </c>
       <c r="K96" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4933333333333298</v>
       </c>
       <c r="L96" s="7">
@@ -11734,10 +11452,7 @@
       <c r="N96" s="11">
         <v>25141129</v>
       </c>
-      <c r="O96" s="10">
-        <f t="shared" si="3"/>
-        <v>332217</v>
-      </c>
+      <c r="O96" s="10"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="9">
@@ -11771,7 +11486,7 @@
         <v>0.1</v>
       </c>
       <c r="K97" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2233333333333298</v>
       </c>
       <c r="L97" s="7">
@@ -11783,10 +11498,7 @@
       <c r="N97" s="11">
         <v>26624472</v>
       </c>
-      <c r="O97" s="10">
-        <f t="shared" si="3"/>
-        <v>332635</v>
-      </c>
+      <c r="O97" s="10"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="9">
@@ -11820,7 +11532,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="K98" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3966666666666701</v>
       </c>
       <c r="L98" s="7">
@@ -11832,10 +11544,7 @@
       <c r="N98" s="11">
         <v>27102471</v>
       </c>
-      <c r="O98" s="10">
-        <f t="shared" si="3"/>
-        <v>333113</v>
-      </c>
+      <c r="O98" s="10"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="9">
@@ -11869,7 +11578,7 @@
         <v>0.44333333333333302</v>
       </c>
       <c r="K99" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.496666666666667</v>
       </c>
       <c r="L99" s="7">
@@ -11881,10 +11590,7 @@
       <c r="N99" s="11">
         <v>30505956</v>
       </c>
-      <c r="O99" s="10">
-        <f t="shared" si="3"/>
-        <v>333476</v>
-      </c>
+      <c r="O99" s="10"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="9">
@@ -11918,7 +11624,7 @@
         <v>1.37</v>
       </c>
       <c r="K100" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.56</v>
       </c>
       <c r="L100" s="7">
@@ -11930,10 +11636,7 @@
       <c r="N100" s="11">
         <v>32528089</v>
       </c>
-      <c r="O100" s="10">
-        <f t="shared" si="3"/>
-        <v>333979</v>
-      </c>
+      <c r="O100" s="10"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="9">
@@ -11967,7 +11670,7 @@
         <v>2.8233333333333301</v>
       </c>
       <c r="K101" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.28333333333333988</v>
       </c>
       <c r="L101" s="7">
@@ -11979,10 +11682,7 @@
       <c r="N101" s="11">
         <v>31022918</v>
       </c>
-      <c r="O101" s="10">
-        <f t="shared" si="3"/>
-        <v>334652</v>
-      </c>
+      <c r="O101" s="10"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="9">
@@ -12016,7 +11716,7 @@
         <v>4.2733333333333299</v>
       </c>
       <c r="K102" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.4433333333333298</v>
       </c>
       <c r="L102" s="7">
@@ -12028,10 +11728,7 @@
       <c r="N102" s="11">
         <v>29952110</v>
       </c>
-      <c r="O102" s="10">
-        <f t="shared" si="3"/>
-        <v>335382</v>
-      </c>
+      <c r="O102" s="10"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="9">
@@ -12065,7 +11762,7 @@
         <v>4.7533333333333303</v>
       </c>
       <c r="K103" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.1066666666666602</v>
       </c>
       <c r="L103" s="7">
@@ -12077,10 +11774,7 @@
       <c r="N103" s="11">
         <v>29836816</v>
       </c>
-      <c r="O103" s="10">
-        <f t="shared" si="3"/>
-        <v>336018</v>
-      </c>
+      <c r="O103" s="10"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="9">
@@ -12114,7 +11808,7 @@
         <v>5.1333333333333302</v>
       </c>
       <c r="K104" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.54</v>
       </c>
       <c r="L104" s="7">
@@ -12126,10 +11820,7 @@
       <c r="N104" s="11">
         <v>31959540</v>
       </c>
-      <c r="O104" s="10">
-        <f t="shared" si="3"/>
-        <v>336685</v>
-      </c>
+      <c r="O104" s="10"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="9">
@@ -12163,7 +11854,7 @@
         <v>5.4266666666666703</v>
       </c>
       <c r="K105" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.2766666666666699</v>
       </c>
       <c r="L105" s="7">
@@ -12175,10 +11866,7 @@
       <c r="N105" s="11">
         <v>32347219</v>
       </c>
-      <c r="O105" s="10">
-        <f t="shared" si="3"/>
-        <v>337500</v>
-      </c>
+      <c r="O105" s="10"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="9">
@@ -12213,7 +11901,7 @@
         <v>5.3966666666666674</v>
       </c>
       <c r="K106" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.956666666666667</v>
       </c>
       <c r="L106" s="7">
@@ -12225,10 +11913,7 @@
       <c r="N106" s="11">
         <v>31886641</v>
       </c>
-      <c r="O106" s="10">
-        <f t="shared" si="3"/>
-        <v>338360</v>
-      </c>
+      <c r="O106" s="10"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
